--- a/data/Diet_Agazella.xlsx
+++ b/data/Diet_Agazella.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB33551-252D-44F3-9276-23F45AEB1E1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CCC328-8E0E-4D3C-A776-C83F3993D97C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
